--- a/biology/Histoire de la zoologie et de la botanique/Johann_Kaspar_Füssli/Johann_Kaspar_Füssli.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_Kaspar_Füssli/Johann_Kaspar_Füssli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Kaspar_F%C3%BCssli</t>
+          <t>Johann_Kaspar_Füssli</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Kaspar Füssli (ou Johann Caspar Fuesslin[1]), né à Zurich le 9 mars 1743 et mort à Winterthour le 4 mai 1786, est un peintre entomologiste et libraire suisse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Kaspar Füssli (ou Johann Caspar Fuesslin), né à Zurich le 9 mars 1743 et mort à Winterthour le 4 mai 1786, est un peintre entomologiste et libraire suisse.
 Il se spécialise dans la représentation des plantes et des insectes, qu'il étudie scientifiquement.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Kaspar_F%C3%BCssli</t>
+          <t>Johann_Kaspar_Füssli</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Kaspar Füssli est professeur de dessin à l'orphelinat de Zurich, puis libraire.
 Il est le fils de Johann Caspar Füssli (1706-1782) et d'Anna Elisabeth Waser. Il est le frère du peintre Johann Heinrich Füssli (1741-1825). Il épouse Verena Störi en 1770, puis Anna Elisabeth Kilchsperger en 1774.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Kaspar_F%C3%BCssli</t>
+          <t>Johann_Kaspar_Füssli</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Verzeichnis der ihm bekannten Schweitzerischen Inseckten, mit einer ausgemahlten Kupfertafel : nebst der Ankündigung eines neuen Inseckten Werkes (1775)
 Magazin für die Liebhaber der Entomologie (2 volumes, 1778-1779)
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Johann_Kaspar_F%C3%BCssli</t>
+          <t>Johann_Kaspar_Füssli</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ C'est sous cette forme qu'il signe ses publications et qui est donc retenue pour les taxons qu'il a décrits. Voir Pholcus phalangioides.
